--- a/Running projects/Trifit T1 Karachi/PO/006- Purchase order- for gate valve and alarm check valve assembly.xlsx
+++ b/Running projects/Trifit T1 Karachi/PO/006- Purchase order- for gate valve and alarm check valve assembly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Trifit T1 Karachi\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDC281D-3853-4273-BE06-EE073DA662E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05A1544-A7D0-4F07-B313-6F64649E0ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,6 +346,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -357,12 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -973,14 +973,14 @@
     </row>
     <row r="17" spans="1:6" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1016,10 +1016,10 @@
       <c r="D21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="19">
         <v>55200</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="20">
         <f>E21*C21</f>
         <v>55200</v>
       </c>
@@ -1037,10 +1037,10 @@
       <c r="D22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="19">
         <v>378675</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="20">
         <f>E22*C22</f>
         <v>378675</v>
       </c>
@@ -1048,11 +1048,11 @@
     <row r="23" spans="1:6" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="16">
         <f>SUM(F21:F22)</f>
         <v>433875</v>
@@ -1061,11 +1061,11 @@
     <row r="24" spans="1:6" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="16">
         <f>F23*5%</f>
         <v>21693.75</v>
@@ -1074,11 +1074,11 @@
     <row r="25" spans="1:6" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="16">
         <f>F23-F24</f>
         <v>412181.25</v>
